--- a/Resume_Metrics/Metrics_Comparison123/Grid/RandEnAct/5Enem/10x10/resume_metrics_comparison_by_kind_causal_offline.xlsx
+++ b/Resume_Metrics/Metrics_Comparison123/Grid/RandEnAct/5Enem/10x10/resume_metrics_comparison_by_kind_causal_offline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,146 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DQN_TS_causal_offline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2720.2 ± 788.33</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>197.25 ± 44.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.52 ± 17.08 (5/5)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DQN_EG_causal_offline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2972.6 ± 864.05</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.81 ± 64.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.4 ± 4.97 (5/5)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DQN_SA_causal_offline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1307.4 ± 375.52 (3/5)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.15 (3/5)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>380.0 ± 129.18 (3/5)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>113.4 ± 115.47 (3/5)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'Game 0': '2911 episodes completed', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': '2403 episodes completed', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DQN_BM_causal_offline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1196.6 ± 345.47 (3/5)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.4 ± 0.07 (3/5)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>382.74 ± 47.34 (3/5)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>114.17 ± 105.98 (3/5)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'Game 0': '2316 episodes completed', 'Game 1': 'ok', 'Game 2': '2967 episodes completed', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
